--- a/analysis/results/Q3/beta_diversity/supplements_beta_diversity_terminal_ileum.xlsx
+++ b/analysis/results/Q3/beta_diversity/supplements_beta_diversity_terminal_ileum.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
   <si>
     <t xml:space="preserve">pairs</t>
   </si>
@@ -55,6 +55,9 @@
   </si>
   <si>
     <t xml:space="preserve">no_ibd vs ibd : Country</t>
+  </si>
+  <si>
+    <t xml:space="preserve">*</t>
   </si>
 </sst>
 </file>
@@ -420,19 +423,19 @@
         <v>1</v>
       </c>
       <c r="C2" t="n">
-        <v>0.258071194442817</v>
+        <v>0.198331865618144</v>
       </c>
       <c r="D2" t="n">
-        <v>1.08888501498891</v>
+        <v>0.893074086119253</v>
       </c>
       <c r="E2" t="n">
-        <v>0.0102614923913168</v>
+        <v>0.00419718815164981</v>
       </c>
       <c r="F2" t="n">
-        <v>0.327</v>
+        <v>0.581</v>
       </c>
       <c r="G2" t="n">
-        <v>0.327</v>
+        <v>0.581</v>
       </c>
       <c r="H2" t="s">
         <v>9</v>
@@ -446,13 +449,13 @@
         <v>1</v>
       </c>
       <c r="C3" t="n">
-        <v>1.24474542070959</v>
+        <v>1.5230501434468</v>
       </c>
       <c r="D3" t="n">
-        <v>5.25197955166229</v>
+        <v>6.85818494538538</v>
       </c>
       <c r="E3" t="n">
-        <v>0.049493883621204</v>
+        <v>0.0322314722171335</v>
       </c>
       <c r="F3" t="n">
         <v>0.001</v>
@@ -472,19 +475,19 @@
         <v>1</v>
       </c>
       <c r="C4" t="n">
-        <v>0.11052369523939</v>
+        <v>0.261681170378883</v>
       </c>
       <c r="D4" t="n">
-        <v>0.463834538234393</v>
+        <v>1.17936240397016</v>
       </c>
       <c r="E4" t="n">
-        <v>0.0043946712464669</v>
+        <v>0.00553781463407776</v>
       </c>
       <c r="F4" t="n">
-        <v>0.97</v>
+        <v>0.264</v>
       </c>
       <c r="G4" t="n">
-        <v>0.97</v>
+        <v>0.264</v>
       </c>
       <c r="H4" t="s">
         <v>9</v>
@@ -538,19 +541,19 @@
         <v>1</v>
       </c>
       <c r="C2" t="n">
-        <v>0.332820105962412</v>
+        <v>0.266519707145889</v>
       </c>
       <c r="D2" t="n">
-        <v>1.0475280258075</v>
+        <v>0.870141890819504</v>
       </c>
       <c r="E2" t="n">
-        <v>0.010013426847118</v>
+        <v>0.00412349168841252</v>
       </c>
       <c r="F2" t="n">
-        <v>0.35</v>
+        <v>0.704</v>
       </c>
       <c r="G2" t="n">
-        <v>0.35</v>
+        <v>0.704</v>
       </c>
       <c r="H2" t="s">
         <v>9</v>
@@ -564,13 +567,13 @@
         <v>1</v>
       </c>
       <c r="C3" t="n">
-        <v>1.17913995615982</v>
+        <v>1.56912551570584</v>
       </c>
       <c r="D3" t="n">
-        <v>3.71126061286196</v>
+        <v>5.12293014948431</v>
       </c>
       <c r="E3" t="n">
-        <v>0.0354763173317833</v>
+        <v>0.0242769140465372</v>
       </c>
       <c r="F3" t="n">
         <v>0.001</v>
@@ -590,19 +593,19 @@
         <v>1</v>
       </c>
       <c r="C4" t="n">
-        <v>0.203071819681333</v>
+        <v>0.343614137232004</v>
       </c>
       <c r="D4" t="n">
-        <v>0.636833164975592</v>
+        <v>1.12251264007613</v>
       </c>
       <c r="E4" t="n">
-        <v>0.00610974149296081</v>
+        <v>0.00531626743129213</v>
       </c>
       <c r="F4" t="n">
-        <v>0.977</v>
+        <v>0.26</v>
       </c>
       <c r="G4" t="n">
-        <v>0.977</v>
+        <v>0.26</v>
       </c>
       <c r="H4" t="s">
         <v>9</v>
@@ -656,19 +659,19 @@
         <v>1</v>
       </c>
       <c r="C2" t="n">
-        <v>308.114259635007</v>
+        <v>252.553562162968</v>
       </c>
       <c r="D2" t="n">
-        <v>1.06878122618979</v>
+        <v>1.03812561350281</v>
       </c>
       <c r="E2" t="n">
-        <v>0.0103399830287047</v>
+        <v>0.00497833189974476</v>
       </c>
       <c r="F2" t="n">
-        <v>0.255</v>
+        <v>0.327</v>
       </c>
       <c r="G2" t="n">
-        <v>0.255</v>
+        <v>0.327</v>
       </c>
       <c r="H2" t="s">
         <v>9</v>
@@ -682,13 +685,13 @@
         <v>1</v>
       </c>
       <c r="C3" t="n">
-        <v>680.354999724455</v>
+        <v>600.047043655526</v>
       </c>
       <c r="D3" t="n">
-        <v>2.36000323941917</v>
+        <v>2.46650334285715</v>
       </c>
       <c r="E3" t="n">
-        <v>0.0228319817426782</v>
+        <v>0.0118281180166061</v>
       </c>
       <c r="F3" t="n">
         <v>0.001</v>
@@ -708,22 +711,22 @@
         <v>1</v>
       </c>
       <c r="C4" t="n">
-        <v>262.960192057995</v>
+        <v>331.977529539809</v>
       </c>
       <c r="D4" t="n">
-        <v>0.911342918191425</v>
+        <v>1.36704239859078</v>
       </c>
       <c r="E4" t="n">
-        <v>0.00882466110567407</v>
+        <v>0.00654393591265222</v>
       </c>
       <c r="F4" t="n">
-        <v>0.738</v>
+        <v>0.019</v>
       </c>
       <c r="G4" t="n">
-        <v>0.738</v>
+        <v>0.019</v>
       </c>
       <c r="H4" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
     </row>
   </sheetData>
@@ -774,19 +777,19 @@
         <v>1</v>
       </c>
       <c r="C2" t="n">
-        <v>0.426298384052608</v>
+        <v>0.320710964868141</v>
       </c>
       <c r="D2" t="n">
-        <v>1.19778433569837</v>
+        <v>0.951624710279136</v>
       </c>
       <c r="E2" t="n">
-        <v>0.0114907600081381</v>
+        <v>0.00451745855796843</v>
       </c>
       <c r="F2" t="n">
-        <v>0.149</v>
+        <v>0.573</v>
       </c>
       <c r="G2" t="n">
-        <v>0.149</v>
+        <v>0.573</v>
       </c>
       <c r="H2" t="s">
         <v>9</v>
@@ -800,13 +803,13 @@
         <v>1</v>
       </c>
       <c r="C3" t="n">
-        <v>1.12303581646705</v>
+        <v>1.54523195538049</v>
       </c>
       <c r="D3" t="n">
-        <v>3.15542999859569</v>
+        <v>4.58506590960368</v>
       </c>
       <c r="E3" t="n">
-        <v>0.0302711329207708</v>
+        <v>0.0217657706955853</v>
       </c>
       <c r="F3" t="n">
         <v>0.001</v>
@@ -826,19 +829,19 @@
         <v>1</v>
       </c>
       <c r="C4" t="n">
-        <v>0.287991372052593</v>
+        <v>0.489415780504941</v>
       </c>
       <c r="D4" t="n">
-        <v>0.807621975959464</v>
+        <v>1.45543779927179</v>
       </c>
       <c r="E4" t="n">
-        <v>0.00776273113965725</v>
+        <v>0.00689379456345016</v>
       </c>
       <c r="F4" t="n">
-        <v>0.808</v>
+        <v>0.053</v>
       </c>
       <c r="G4" t="n">
-        <v>0.808</v>
+        <v>0.053</v>
       </c>
       <c r="H4" t="s">
         <v>9</v>
@@ -892,19 +895,19 @@
         <v>1</v>
       </c>
       <c r="C2" t="n">
-        <v>0.460056055287907</v>
+        <v>0.381292850139147</v>
       </c>
       <c r="D2" t="n">
-        <v>1.11182615686457</v>
+        <v>0.950352601920806</v>
       </c>
       <c r="E2" t="n">
-        <v>0.0107610053110205</v>
+        <v>0.00454266936896485</v>
       </c>
       <c r="F2" t="n">
-        <v>0.161</v>
+        <v>0.637</v>
       </c>
       <c r="G2" t="n">
-        <v>0.161</v>
+        <v>0.637</v>
       </c>
       <c r="H2" t="s">
         <v>9</v>
@@ -918,13 +921,13 @@
         <v>1</v>
       </c>
       <c r="C3" t="n">
-        <v>0.941910352649984</v>
+        <v>1.27798803141499</v>
       </c>
       <c r="D3" t="n">
-        <v>2.27633253700446</v>
+        <v>3.18531871351813</v>
       </c>
       <c r="E3" t="n">
-        <v>0.0220318854428044</v>
+        <v>0.0152257695944048</v>
       </c>
       <c r="F3" t="n">
         <v>0.001</v>
@@ -944,19 +947,19 @@
         <v>1</v>
       </c>
       <c r="C4" t="n">
-        <v>0.365032761986855</v>
+        <v>0.514301524271937</v>
       </c>
       <c r="D4" t="n">
-        <v>0.881132946210717</v>
+        <v>1.28364343485513</v>
       </c>
       <c r="E4" t="n">
-        <v>0.00853834971909838</v>
+        <v>0.00612731599837098</v>
       </c>
       <c r="F4" t="n">
-        <v>0.819</v>
+        <v>0.051</v>
       </c>
       <c r="G4" t="n">
-        <v>0.819</v>
+        <v>0.051</v>
       </c>
       <c r="H4" t="s">
         <v>9</v>
